--- a/Test Data/InputData.xlsx
+++ b/Test Data/InputData.xlsx
@@ -228,21 +228,21 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.9030612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2908163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Test Data/InputData.xlsx
+++ b/Test Data/InputData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Environment</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>https://safety-test.kuvrr.com/observer/ </t>
+  </si>
+  <si>
+    <t>fdwrewrtrerhghthrthtrhtr</t>
+  </si>
+  <si>
+    <t>omsai11ram</t>
   </si>
   <si>
     <t>Integration</t>
@@ -228,21 +234,21 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -311,10 +317,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>13</v>
@@ -325,16 +331,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>11</v>
@@ -357,11 +363,10 @@
     <hyperlink ref="G2" r:id="rId4" display="obsckorg@yopmail.com"/>
     <hyperlink ref="B3" r:id="rId5" display="https://safety-test.kuvrr.com/observer/ "/>
     <hyperlink ref="D3" r:id="rId6" display="Kuvrr@2019#"/>
-    <hyperlink ref="E3" r:id="rId7" display="lackorg@yopmail.com"/>
-    <hyperlink ref="G3" r:id="rId8" display="obsckorg@yopmail.com"/>
-    <hyperlink ref="B4" r:id="rId9" display="https://safety-red5.kuvrr.com/?next=/observer/ "/>
-    <hyperlink ref="E4" r:id="rId10" display="lackorg@yopmail.com"/>
-    <hyperlink ref="G4" r:id="rId11" display="obsckorg@yopmail.com"/>
+    <hyperlink ref="G3" r:id="rId7" display="obsckorg@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId8" display="https://safety-red5.kuvrr.com/?next=/observer/ "/>
+    <hyperlink ref="E4" r:id="rId9" display="lackorg@yopmail.com"/>
+    <hyperlink ref="G4" r:id="rId10" display="obsckorg@yopmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
